--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H2">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J2">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N2">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P2">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q2">
-        <v>812.8666811871899</v>
+        <v>3.527182468168889</v>
       </c>
       <c r="R2">
-        <v>7315.80013068471</v>
+        <v>31.74464221352</v>
       </c>
       <c r="S2">
-        <v>0.05003627036382898</v>
+        <v>0.0003167124431784117</v>
       </c>
       <c r="T2">
-        <v>0.05003627036382898</v>
+        <v>0.0003167124431784119</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H3">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J3">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N3">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O3">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P3">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q3">
-        <v>1426.572420152145</v>
+        <v>2.299959927112889</v>
       </c>
       <c r="R3">
-        <v>12839.1517813693</v>
+        <v>20.699639344016</v>
       </c>
       <c r="S3">
-        <v>0.08781312478457559</v>
+        <v>0.0002065177898512639</v>
       </c>
       <c r="T3">
-        <v>0.08781312478457561</v>
+        <v>0.000206517789851264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H4">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J4">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N4">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P4">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q4">
-        <v>274.448239799055</v>
+        <v>0.5165032043395555</v>
       </c>
       <c r="R4">
-        <v>2470.034158191495</v>
+        <v>4.648528839056</v>
       </c>
       <c r="S4">
-        <v>0.01689374979351644</v>
+        <v>4.637780813216108E-05</v>
       </c>
       <c r="T4">
-        <v>0.01689374979351644</v>
+        <v>4.637780813216109E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.732605</v>
+        <v>0.7476426666666667</v>
       </c>
       <c r="H5">
-        <v>1391.197815</v>
+        <v>2.242928</v>
       </c>
       <c r="I5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="J5">
-        <v>0.3632113435366598</v>
+        <v>0.001581772089386036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N5">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P5">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q5">
-        <v>3386.68033193931</v>
+        <v>11.272330351088</v>
       </c>
       <c r="R5">
-        <v>30480.12298745379</v>
+        <v>101.450973159792</v>
       </c>
       <c r="S5">
-        <v>0.2084681985947388</v>
+        <v>0.001012164048224199</v>
       </c>
       <c r="T5">
-        <v>0.2084681985947388</v>
+        <v>0.001012164048224199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J6">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N6">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P6">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q6">
-        <v>21.46684012104267</v>
+        <v>57.77637378903778</v>
       </c>
       <c r="R6">
-        <v>193.201561089384</v>
+        <v>519.9873641013401</v>
       </c>
       <c r="S6">
-        <v>0.001321398257565227</v>
+        <v>0.005187850831605782</v>
       </c>
       <c r="T6">
-        <v>0.001321398257565227</v>
+        <v>0.005187850831605784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J7">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N7">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O7">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P7">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q7">
-        <v>37.67407715588577</v>
+        <v>37.67407715588578</v>
       </c>
       <c r="R7">
-        <v>339.0666944029719</v>
+        <v>339.066694402972</v>
       </c>
       <c r="S7">
-        <v>0.002319039953177208</v>
+        <v>0.003382827264597658</v>
       </c>
       <c r="T7">
-        <v>0.002319039953177207</v>
+        <v>0.003382827264597658</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J8">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N8">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P8">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q8">
-        <v>7.247850873483111</v>
+        <v>8.460487220739111</v>
       </c>
       <c r="R8">
-        <v>65.23065786134799</v>
+        <v>76.144384986652</v>
       </c>
       <c r="S8">
-        <v>0.0004461437948627166</v>
+        <v>0.0007596832889541662</v>
       </c>
       <c r="T8">
-        <v>0.0004461437948627166</v>
+        <v>0.0007596832889541663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.009591978638444227</v>
+        <v>0.02590993131491687</v>
       </c>
       <c r="J9">
-        <v>0.009591978638444226</v>
+        <v>0.02590993131491688</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N9">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P9">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q9">
-        <v>89.43819067677954</v>
+        <v>184.644366350596</v>
       </c>
       <c r="R9">
-        <v>804.9437160910159</v>
+        <v>1661.799297155364</v>
       </c>
       <c r="S9">
-        <v>0.005505396632839075</v>
+        <v>0.01657956992975927</v>
       </c>
       <c r="T9">
-        <v>0.005505396632839074</v>
+        <v>0.01657956992975927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H10">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J10">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N10">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P10">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q10">
-        <v>194.58560200638</v>
+        <v>89.30789217334943</v>
       </c>
       <c r="R10">
-        <v>1751.27041805742</v>
+        <v>803.7710295601448</v>
       </c>
       <c r="S10">
-        <v>0.01197777940249655</v>
+        <v>0.008019126024976975</v>
       </c>
       <c r="T10">
-        <v>0.01197777940249655</v>
+        <v>0.008019126024976977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H11">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J11">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N11">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O11">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P11">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q11">
-        <v>341.49567156029</v>
+        <v>58.23474544549344</v>
       </c>
       <c r="R11">
-        <v>3073.46104404261</v>
+        <v>524.1127090094409</v>
       </c>
       <c r="S11">
-        <v>0.02102087604982435</v>
+        <v>0.005229008897146739</v>
       </c>
       <c r="T11">
-        <v>0.02102087604982435</v>
+        <v>0.00522900889714674</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H12">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J12">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N12">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P12">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q12">
-        <v>65.69795170211</v>
+        <v>13.07780725738678</v>
       </c>
       <c r="R12">
-        <v>591.28156531899</v>
+        <v>117.700265316481</v>
       </c>
       <c r="S12">
-        <v>0.004044058576635825</v>
+        <v>0.001174281264233424</v>
       </c>
       <c r="T12">
-        <v>0.004044058576635825</v>
+        <v>0.001174281264233424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>111.00921</v>
+        <v>18.93023433333333</v>
       </c>
       <c r="H13">
-        <v>333.02763</v>
+        <v>56.79070299999999</v>
       </c>
       <c r="I13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848061</v>
       </c>
       <c r="J13">
-        <v>0.08694623555538696</v>
+        <v>0.04005030430848062</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N13">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P13">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q13">
-        <v>810.71010344662</v>
+        <v>285.4142286718629</v>
       </c>
       <c r="R13">
-        <v>7296.39093101958</v>
+        <v>2568.728058046766</v>
       </c>
       <c r="S13">
-        <v>0.04990352152643023</v>
+        <v>0.02562788812212347</v>
       </c>
       <c r="T13">
-        <v>0.04990352152643023</v>
+        <v>0.02562788812212348</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H14">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J14">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.752878</v>
+        <v>4.717738333333333</v>
       </c>
       <c r="N14">
-        <v>5.258634</v>
+        <v>14.153215</v>
       </c>
       <c r="O14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="P14">
-        <v>0.1377607590022273</v>
+        <v>0.2002263444295212</v>
       </c>
       <c r="Q14">
-        <v>1209.080035170219</v>
+        <v>2079.281525302444</v>
       </c>
       <c r="R14">
-        <v>10881.72031653197</v>
+        <v>18713.533727722</v>
       </c>
       <c r="S14">
-        <v>0.07442531097833652</v>
+        <v>0.18670265512976</v>
       </c>
       <c r="T14">
-        <v>0.07442531097833652</v>
+        <v>0.1867026551297601</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H15">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J15">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>3.076282333333333</v>
       </c>
       <c r="N15">
-        <v>9.228846999999998</v>
+        <v>9.228847</v>
       </c>
       <c r="O15">
-        <v>0.2417686736584877</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="P15">
-        <v>0.2417686736584878</v>
+        <v>0.1305610278731266</v>
       </c>
       <c r="Q15">
-        <v>2121.922661919535</v>
+        <v>1355.831241660844</v>
       </c>
       <c r="R15">
-        <v>19097.30395727581</v>
+        <v>12202.4811749476</v>
       </c>
       <c r="S15">
-        <v>0.1306156328709106</v>
+        <v>0.1217426739215309</v>
       </c>
       <c r="T15">
-        <v>0.1306156328709106</v>
+        <v>0.1217426739215309</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H16">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J16">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5918243333333334</v>
+        <v>0.6908423333333333</v>
       </c>
       <c r="N16">
-        <v>1.775473</v>
+        <v>2.072527</v>
       </c>
       <c r="O16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="P16">
-        <v>0.04651217560833507</v>
+        <v>0.02932015834857891</v>
       </c>
       <c r="Q16">
-        <v>408.2217848368559</v>
+        <v>304.4797314101777</v>
       </c>
       <c r="R16">
-        <v>3673.996063531703</v>
+        <v>2740.317582691599</v>
       </c>
       <c r="S16">
-        <v>0.02512822344332009</v>
+        <v>0.02733981598725916</v>
       </c>
       <c r="T16">
-        <v>0.02512822344332009</v>
+        <v>0.02733981598725916</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>689.7685036666667</v>
+        <v>440.7369333333333</v>
       </c>
       <c r="H17">
-        <v>2069.305511</v>
+        <v>1322.2108</v>
       </c>
       <c r="I17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872165</v>
       </c>
       <c r="J17">
-        <v>0.5402504422695089</v>
+        <v>0.9324579922872166</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.303088666666667</v>
+        <v>15.077163</v>
       </c>
       <c r="N17">
-        <v>21.909266</v>
+        <v>45.231489</v>
       </c>
       <c r="O17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="P17">
-        <v>0.5739583917309499</v>
+        <v>0.6398924693487733</v>
       </c>
       <c r="Q17">
-        <v>5037.440541751658</v>
+        <v>6645.062583986799</v>
       </c>
       <c r="R17">
-        <v>45336.96487576493</v>
+        <v>59805.56325588118</v>
       </c>
       <c r="S17">
-        <v>0.3100812749769417</v>
+        <v>0.5966728472486664</v>
       </c>
       <c r="T17">
-        <v>0.3100812749769417</v>
+        <v>0.5966728472486664</v>
       </c>
     </row>
   </sheetData>
